--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4071108.928190757</v>
+        <v>-4071786.748871029</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.451505232</v>
+        <v>313298.4515052321</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>122.0492982736043</v>
       </c>
-      <c r="E11" t="n">
-        <v>61.28741305859231</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079825</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.88999934163195</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293217</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.5745892848265</v>
       </c>
       <c r="V11" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>74.48252160670565</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="T12" t="n">
-        <v>20.565306530728</v>
+        <v>80.16426883755082</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603979</v>
+        <v>42.84521610603971</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054757</v>
+        <v>46.26644524054748</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215692</v>
+        <v>72.32210790215683</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461593</v>
+        <v>22.93043876461584</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917094</v>
+        <v>29.00181045917085</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420537</v>
+        <v>8.831062059420447</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871266</v>
+        <v>40.97168601871257</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199508</v>
+        <v>29.358516861995</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013468</v>
+        <v>94.27381875013459</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959523</v>
+        <v>50.72653950959514</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448065</v>
+        <v>95.92823141448056</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338785</v>
+        <v>27.53697973338777</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931374</v>
+        <v>22.75879713931366</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>122.0492982736043</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>61.28741305859236</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>122.0492982736043</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079825</v>
+        <v>46.2136088607982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.88999934163201</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>28.39741371696037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1692,67 +1692,67 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>59.59896230682241</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>51.93274503525221</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.136586121265591</v>
+      </c>
+      <c r="R15" t="n">
+        <v>102.4441784128623</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20.56530653072797</v>
+      </c>
+      <c r="U15" t="n">
         <v>122.0492982736043</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>51.93274503525222</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.136586121265609</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20.565306530728</v>
-      </c>
-      <c r="U15" t="n">
-        <v>42.84521610603979</v>
-      </c>
       <c r="V15" t="n">
-        <v>46.26644524054757</v>
+        <v>46.26644524054754</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215692</v>
+        <v>72.32210790215689</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461593</v>
+        <v>22.9304387646159</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917094</v>
+        <v>29.00181045917091</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420537</v>
+        <v>8.831062059420503</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871266</v>
+        <v>40.97168601871263</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199508</v>
+        <v>29.35851686199506</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013468</v>
+        <v>94.27381875013465</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959523</v>
+        <v>50.7265395095952</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448065</v>
+        <v>95.92823141448062</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338785</v>
+        <v>27.53697973338782</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931374</v>
+        <v>22.75879713931371</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.20745676868125</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C17" t="n">
-        <v>29.32571377202675</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307521</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E17" t="n">
-        <v>50.59912845248408</v>
+        <v>50.59912845248377</v>
       </c>
       <c r="F17" t="n">
-        <v>82.31946603086141</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927433</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H17" t="n">
-        <v>26.03172204233374</v>
+        <v>26.03172204233381</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01668021661482</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X17" t="n">
-        <v>38.90293068555405</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.40578380929782</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="18">
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>49.43169076287285</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R18" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>49.43169076287285</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C20" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927435</v>
       </c>
       <c r="H20" t="n">
-        <v>26.03172204233366</v>
+        <v>26.03172204233374</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>49.43169076287285</v>
+      </c>
+      <c r="D21" t="n">
         <v>122.0492982736043</v>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>122.0492982736043</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.43169076287285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C23" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927441</v>
+        <v>97.94765892927435</v>
       </c>
       <c r="H23" t="n">
-        <v>26.03172204233382</v>
+        <v>26.03172204233375</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="E24" t="n">
-        <v>101.3644357981251</v>
+        <v>49.43169076287288</v>
       </c>
       <c r="F24" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>190.2820923918732</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H26" t="n">
         <v>133.9943484033456</v>
@@ -2606,7 +2606,7 @@
         <v>14.35531776834645</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646677</v>
+        <v>9.501751719646682</v>
       </c>
       <c r="U26" t="n">
         <v>37.23252581057173</v>
@@ -2637,13 +2637,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>92.10885493282366</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>4.395757191330347</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588536</v>
+        <v>115.2312405819304</v>
       </c>
     </row>
     <row r="28">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
         <v>124.855002394087</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
         <v>190.2820923918732</v>
@@ -2807,10 +2807,10 @@
         <v>205.9102852902861</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751261</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834645</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646684</v>
+        <v>9.50175171964662</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057173</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
         <v>124.9793065776266</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
         <v>169.3684101703096</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>13.63782836354013</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2883,16 +2883,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>86.44900162309669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442417</v>
+        <v>2.03062495744236</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275421</v>
+        <v>24.31053453275416</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726199</v>
+        <v>27.73176366726193</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887133</v>
+        <v>53.78742632887128</v>
       </c>
       <c r="X30" t="n">
-        <v>4.395757191330347</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46712888588536</v>
+        <v>10.4671288858853</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542708</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U31" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119507</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>137.2883401330386</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8550023940871</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
         <v>158.5617548134959</v>
@@ -3041,13 +3041,13 @@
         <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
         <v>133.9943484033456</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751269</v>
+        <v>27.67892728751265</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834648</v>
+        <v>14.35531776834645</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646705</v>
+        <v>9.501751719646682</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057176</v>
+        <v>37.23252581057173</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610118</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776267</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X32" t="n">
         <v>146.8655570465659</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703097</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>104.7641116960448</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442446</v>
+        <v>2.030624957442417</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275424</v>
+        <v>232.8178788523946</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726202</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887136</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330375</v>
+        <v>4.395757191330347</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588539</v>
+        <v>10.46712888588536</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542711</v>
+        <v>22.43700444542708</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870953</v>
+        <v>10.8238352887095</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684913</v>
+        <v>75.7391371768491</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630967</v>
+        <v>32.19185793630965</v>
       </c>
       <c r="W34" t="n">
-        <v>77.3935498411951</v>
+        <v>77.39354984119507</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102299</v>
+        <v>9.002298160102271</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028189</v>
+        <v>4.224115566028161</v>
       </c>
     </row>
     <row r="35">
@@ -3345,13 +3345,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>114.8692636218923</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>18.61134966514649</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>43.18501187591024</v>
       </c>
     </row>
     <row r="37">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>150.8006126582625</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>101.6399686862092</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514649</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059057</v>
       </c>
       <c r="V41" t="n">
         <v>80.28369907349909</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>107.3192778659309</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>101.1669881434353</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>26.10849904135867</v>
@@ -3885,7 +3885,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265587</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>43.47368772794369</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05283637974932276</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135867</v>
+        <v>133.4277769072896</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.6329541578429</v>
+        <v>379.61030226675</v>
       </c>
       <c r="C11" t="n">
-        <v>241.6329541578429</v>
+        <v>379.61030226675</v>
       </c>
       <c r="D11" t="n">
-        <v>118.3508346895557</v>
+        <v>379.61030226675</v>
       </c>
       <c r="E11" t="n">
-        <v>56.44435685259364</v>
+        <v>379.61030226675</v>
       </c>
       <c r="F11" t="n">
-        <v>56.44435685259364</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="G11" t="n">
-        <v>56.44435685259364</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="H11" t="n">
-        <v>56.44435685259364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I11" t="n">
         <v>9.763943861888347</v>
       </c>
       <c r="J11" t="n">
-        <v>127.09041603444</v>
+        <v>127.0904160344401</v>
       </c>
       <c r="K11" t="n">
-        <v>161.9585955765131</v>
+        <v>127.0904160344401</v>
       </c>
       <c r="L11" t="n">
-        <v>210.3558460635005</v>
+        <v>175.4876665214275</v>
       </c>
       <c r="M11" t="n">
-        <v>331.1846513543688</v>
+        <v>258.2148925245445</v>
       </c>
       <c r="N11" t="n">
-        <v>452.0134566452371</v>
+        <v>335.4382955160495</v>
       </c>
       <c r="O11" t="n">
-        <v>488.0239675444173</v>
+        <v>371.4488064152298</v>
       </c>
       <c r="P11" t="n">
-        <v>488.0239675444173</v>
+        <v>383.2527588456298</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444173</v>
+        <v>488.0239675444172</v>
       </c>
       <c r="R11" t="n">
         <v>488.1971930944173</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944173</v>
+        <v>454.9749715372134</v>
       </c>
       <c r="T11" t="n">
-        <v>488.1971930944173</v>
+        <v>426.6553419483929</v>
       </c>
       <c r="U11" t="n">
-        <v>488.1971930944173</v>
+        <v>379.61030226675</v>
       </c>
       <c r="V11" t="n">
-        <v>364.9150736261302</v>
+        <v>379.61030226675</v>
       </c>
       <c r="W11" t="n">
-        <v>241.6329541578429</v>
+        <v>379.61030226675</v>
       </c>
       <c r="X11" t="n">
-        <v>241.6329541578429</v>
+        <v>379.61030226675</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.6329541578429</v>
+        <v>379.61030226675</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="C12" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="D12" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="E12" t="n">
-        <v>170.4694832648917</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="F12" t="n">
-        <v>170.4694832648917</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="G12" t="n">
-        <v>170.4694832648917</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="H12" t="n">
-        <v>170.4694832648917</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="J12" t="n">
         <v>9.763943861888347</v>
@@ -5124,13 +5124,13 @@
         <v>9.763943861888347</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3309857893937</v>
+        <v>128.3309857893938</v>
       </c>
       <c r="M12" t="n">
         <v>249.159791080262</v>
       </c>
       <c r="N12" t="n">
-        <v>367.3683878035491</v>
+        <v>369.9885963711303</v>
       </c>
       <c r="O12" t="n">
         <v>488.1971930944173</v>
@@ -5145,25 +5145,25 @@
         <v>481.9986212547551</v>
       </c>
       <c r="S12" t="n">
-        <v>481.9986212547551</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="T12" t="n">
-        <v>461.2255843550299</v>
+        <v>277.7424928596489</v>
       </c>
       <c r="U12" t="n">
-        <v>417.947588288323</v>
+        <v>234.4644967929421</v>
       </c>
       <c r="V12" t="n">
-        <v>371.2138052170628</v>
+        <v>187.730713721682</v>
       </c>
       <c r="W12" t="n">
-        <v>298.1611709724599</v>
+        <v>114.6780794770792</v>
       </c>
       <c r="X12" t="n">
-        <v>274.999111614262</v>
+        <v>91.51602011888134</v>
       </c>
       <c r="Y12" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.36184332167606</v>
+        <v>26.36184332167615</v>
       </c>
       <c r="C13" t="n">
-        <v>54.00788507752956</v>
+        <v>54.00788507752974</v>
       </c>
       <c r="D13" t="n">
-        <v>102.7157122474321</v>
+        <v>54.00788507752974</v>
       </c>
       <c r="E13" t="n">
-        <v>154.8949833654355</v>
+        <v>54.00788507752974</v>
       </c>
       <c r="F13" t="n">
-        <v>209.7960208872794</v>
+        <v>54.00788507752974</v>
       </c>
       <c r="G13" t="n">
-        <v>235.2256697934136</v>
+        <v>54.00788507752974</v>
       </c>
       <c r="H13" t="n">
-        <v>263.5405336903</v>
+        <v>54.00788507752974</v>
       </c>
       <c r="I13" t="n">
-        <v>292.9180477559118</v>
+        <v>83.38539914314164</v>
       </c>
       <c r="J13" t="n">
-        <v>366.6563843967054</v>
+        <v>83.38539914314164</v>
       </c>
       <c r="K13" t="n">
-        <v>383.8908443538484</v>
+        <v>83.38539914314164</v>
       </c>
       <c r="L13" t="n">
-        <v>383.8908443538484</v>
+        <v>83.38539914314164</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8908443538484</v>
+        <v>204.2142044340099</v>
       </c>
       <c r="N13" t="n">
-        <v>383.8908443538484</v>
+        <v>316.9979918744489</v>
       </c>
       <c r="O13" t="n">
-        <v>383.8908443538484</v>
+        <v>316.9979918744489</v>
       </c>
       <c r="P13" t="n">
-        <v>383.8908443538484</v>
+        <v>316.9979918744489</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538476</v>
       </c>
       <c r="R13" t="n">
-        <v>374.970579647363</v>
+        <v>374.9705796473623</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143199</v>
+        <v>333.5850382143194</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769511</v>
+        <v>303.9299706769507</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313606</v>
+        <v>208.7038911313602</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337896</v>
+        <v>157.4649623337893</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481926</v>
+        <v>60.56775888481909</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099314</v>
+        <v>32.75262784099306</v>
       </c>
       <c r="Y13" t="n">
         <v>9.763943861888347</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.9150736261302</v>
+        <v>303.008595789168</v>
       </c>
       <c r="C14" t="n">
-        <v>364.9150736261302</v>
+        <v>303.008595789168</v>
       </c>
       <c r="D14" t="n">
-        <v>364.9150736261302</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="E14" t="n">
-        <v>241.6329541578429</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="F14" t="n">
-        <v>179.7264763208809</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="G14" t="n">
-        <v>179.7264763208809</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259364</v>
+        <v>56.4443568525936</v>
       </c>
       <c r="I14" t="n">
         <v>9.763943861888347</v>
       </c>
       <c r="J14" t="n">
-        <v>127.09041603444</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K14" t="n">
-        <v>138.8943684648405</v>
+        <v>18.06556317397195</v>
       </c>
       <c r="L14" t="n">
-        <v>187.2916189518279</v>
+        <v>66.46281366095936</v>
       </c>
       <c r="M14" t="n">
-        <v>270.0188449549449</v>
+        <v>149.1900396640764</v>
       </c>
       <c r="N14" t="n">
-        <v>347.2422479464498</v>
+        <v>226.4134426555814</v>
       </c>
       <c r="O14" t="n">
-        <v>383.2527588456301</v>
+        <v>262.4239535547617</v>
       </c>
       <c r="P14" t="n">
-        <v>383.2527588456301</v>
+        <v>383.25275884563</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444173</v>
+        <v>488.0239675444172</v>
       </c>
       <c r="R14" t="n">
         <v>488.1971930944173</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944173</v>
+        <v>454.9749715372132</v>
       </c>
       <c r="T14" t="n">
-        <v>488.1971930944173</v>
+        <v>454.9749715372132</v>
       </c>
       <c r="U14" t="n">
-        <v>488.1971930944173</v>
+        <v>426.2907152574552</v>
       </c>
       <c r="V14" t="n">
-        <v>488.1971930944173</v>
+        <v>426.2907152574552</v>
       </c>
       <c r="W14" t="n">
-        <v>488.1971930944173</v>
+        <v>303.008595789168</v>
       </c>
       <c r="X14" t="n">
-        <v>488.1971930944173</v>
+        <v>303.008595789168</v>
       </c>
       <c r="Y14" t="n">
-        <v>488.1971930944173</v>
+        <v>303.008595789168</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="C15" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="D15" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="E15" t="n">
-        <v>185.5033815476021</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="F15" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="G15" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="H15" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="I15" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="J15" t="n">
         <v>9.763943861888347</v>
@@ -5361,10 +5361,10 @@
         <v>9.763943861888347</v>
       </c>
       <c r="L15" t="n">
-        <v>41.00029403282524</v>
+        <v>128.3309857893938</v>
       </c>
       <c r="M15" t="n">
-        <v>161.8290993236935</v>
+        <v>249.159791080262</v>
       </c>
       <c r="N15" t="n">
         <v>282.6579046145618</v>
@@ -5379,28 +5379,28 @@
         <v>481.9986212547551</v>
       </c>
       <c r="R15" t="n">
-        <v>481.9986212547551</v>
+        <v>378.5196531609548</v>
       </c>
       <c r="S15" t="n">
-        <v>481.9986212547551</v>
+        <v>378.5196531609548</v>
       </c>
       <c r="T15" t="n">
-        <v>461.2255843550299</v>
+        <v>357.7466162612296</v>
       </c>
       <c r="U15" t="n">
-        <v>417.947588288323</v>
+        <v>234.4644967929424</v>
       </c>
       <c r="V15" t="n">
-        <v>371.2138052170628</v>
+        <v>187.7307137216822</v>
       </c>
       <c r="W15" t="n">
-        <v>298.1611709724599</v>
+        <v>114.6780794770793</v>
       </c>
       <c r="X15" t="n">
-        <v>274.999111614262</v>
+        <v>91.51602011888141</v>
       </c>
       <c r="Y15" t="n">
-        <v>245.7043535746954</v>
+        <v>62.22126207931483</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.36184332167606</v>
+        <v>26.36184332167609</v>
       </c>
       <c r="C16" t="n">
-        <v>26.36184332167606</v>
+        <v>54.00788507752962</v>
       </c>
       <c r="D16" t="n">
-        <v>26.36184332167606</v>
+        <v>102.7157122474322</v>
       </c>
       <c r="E16" t="n">
-        <v>78.54111443967945</v>
+        <v>154.8949833654356</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4421519615234</v>
+        <v>209.7960208872796</v>
       </c>
       <c r="G16" t="n">
-        <v>158.8718008676576</v>
+        <v>209.7960208872796</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8718008676576</v>
+        <v>209.7960208872796</v>
       </c>
       <c r="I16" t="n">
-        <v>188.2493149332694</v>
+        <v>239.1735349528914</v>
       </c>
       <c r="J16" t="n">
-        <v>261.987651574063</v>
+        <v>312.911871593685</v>
       </c>
       <c r="K16" t="n">
-        <v>382.8164568649312</v>
+        <v>312.911871593685</v>
       </c>
       <c r="L16" t="n">
-        <v>382.8164568649312</v>
+        <v>383.8908443538481</v>
       </c>
       <c r="M16" t="n">
-        <v>382.8164568649312</v>
+        <v>383.8908443538481</v>
       </c>
       <c r="N16" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538481</v>
       </c>
       <c r="O16" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538481</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538481</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538481</v>
       </c>
       <c r="R16" t="n">
-        <v>374.970579647363</v>
+        <v>374.9705796473627</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143199</v>
+        <v>333.5850382143197</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769511</v>
+        <v>303.929970676951</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313606</v>
+        <v>208.7038911313604</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337896</v>
+        <v>157.4649623337895</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481926</v>
+        <v>60.5677588848192</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099314</v>
+        <v>32.75262784099311</v>
       </c>
       <c r="Y16" t="n">
         <v>9.763943861888347</v>
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589145</v>
+        <v>315.941787558914</v>
       </c>
       <c r="C17" t="n">
-        <v>286.319854455857</v>
+        <v>286.3198544558567</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618418</v>
+        <v>269.2568483618413</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017567</v>
       </c>
       <c r="F17" t="n">
         <v>134.9956418130077</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151839</v>
+        <v>36.05861259151846</v>
       </c>
       <c r="H17" t="n">
         <v>9.763943861888347</v>
       </c>
       <c r="I17" t="n">
-        <v>53.69130131193762</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J17" t="n">
-        <v>53.69130131193762</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K17" t="n">
-        <v>53.69130131193762</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L17" t="n">
-        <v>102.088551798925</v>
+        <v>58.16119434887575</v>
       </c>
       <c r="M17" t="n">
-        <v>184.815777802042</v>
+        <v>140.8884203519928</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0391807935469</v>
+        <v>218.1118233434978</v>
       </c>
       <c r="O17" t="n">
-        <v>298.0496916927272</v>
+        <v>254.1223342426781</v>
       </c>
       <c r="P17" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545303</v>
       </c>
       <c r="Q17" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545303</v>
       </c>
       <c r="R17" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545303</v>
       </c>
       <c r="S17" t="n">
-        <v>390.7209271994658</v>
+        <v>320.6981276545303</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944173</v>
+        <v>418.1743935494817</v>
       </c>
       <c r="U17" t="n">
         <v>488.1971930944173</v>
@@ -5555,10 +5555,10 @@
         <v>471.0086272190488</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376812</v>
+        <v>431.7127376376809</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858652</v>
+        <v>369.6866933858648</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.22126207931484</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="C18" t="n">
-        <v>62.22126207931484</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="D18" t="n">
-        <v>62.22126207931484</v>
+        <v>432.0676204841765</v>
       </c>
       <c r="E18" t="n">
-        <v>62.22126207931484</v>
+        <v>308.7855010158893</v>
       </c>
       <c r="F18" t="n">
-        <v>62.22126207931484</v>
+        <v>185.503381547602</v>
       </c>
       <c r="G18" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="H18" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="J18" t="n">
         <v>9.763943861888347</v>
@@ -5598,16 +5598,16 @@
         <v>9.763943861888347</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3309857893937</v>
+        <v>125.7107772218125</v>
       </c>
       <c r="M18" t="n">
-        <v>249.159791080262</v>
+        <v>246.5395825126808</v>
       </c>
       <c r="N18" t="n">
-        <v>282.6579046145618</v>
+        <v>367.3683878035491</v>
       </c>
       <c r="O18" t="n">
-        <v>403.4867099054301</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P18" t="n">
         <v>488.1971930944173</v>
@@ -5616,28 +5616,28 @@
         <v>481.9986212547551</v>
       </c>
       <c r="R18" t="n">
-        <v>358.7165017864679</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="S18" t="n">
-        <v>358.7165017864679</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="T18" t="n">
-        <v>358.7165017864679</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="U18" t="n">
-        <v>358.7165017864679</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="V18" t="n">
-        <v>235.4343823181807</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="W18" t="n">
-        <v>112.1522628498935</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="X18" t="n">
-        <v>62.22126207931484</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.22126207931484</v>
+        <v>481.9986212547551</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888347</v>
+        <v>488.1971930944173</v>
       </c>
     </row>
     <row r="20">
@@ -5735,52 +5735,52 @@
         <v>269.2568483618418</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017568</v>
+        <v>218.1466176017569</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130078</v>
+        <v>134.995641813008</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151831</v>
+        <v>36.05861259151839</v>
       </c>
       <c r="H20" t="n">
         <v>9.763943861888347</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888347</v>
+        <v>81.1447676619532</v>
       </c>
       <c r="J20" t="n">
-        <v>9.763943861888347</v>
+        <v>81.1447676619532</v>
       </c>
       <c r="K20" t="n">
-        <v>9.763943861888347</v>
+        <v>81.1447676619532</v>
       </c>
       <c r="L20" t="n">
-        <v>58.16119434887571</v>
+        <v>129.5420181489406</v>
       </c>
       <c r="M20" t="n">
-        <v>140.8884203519927</v>
+        <v>212.2692441520576</v>
       </c>
       <c r="N20" t="n">
-        <v>218.1118233434976</v>
+        <v>289.4926471435626</v>
       </c>
       <c r="O20" t="n">
-        <v>254.1223342426779</v>
+        <v>325.5031580427429</v>
       </c>
       <c r="P20" t="n">
-        <v>254.1223342426779</v>
+        <v>325.5031580427429</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.1223342426779</v>
+        <v>325.5031580427429</v>
       </c>
       <c r="R20" t="n">
-        <v>254.1223342426779</v>
+        <v>325.5031580427429</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6981276545303</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494817</v>
+        <v>418.1743935494816</v>
       </c>
       <c r="U20" t="n">
         <v>488.1971930944173</v>
@@ -5789,13 +5789,13 @@
         <v>488.1971930944173</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190488</v>
+        <v>471.0086272190489</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376811</v>
+        <v>431.7127376376812</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858653</v>
+        <v>369.6866933858652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>185.5033815476021</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="C21" t="n">
-        <v>62.22126207931484</v>
+        <v>432.0676204841765</v>
       </c>
       <c r="D21" t="n">
-        <v>62.22126207931484</v>
+        <v>308.7855010158893</v>
       </c>
       <c r="E21" t="n">
-        <v>62.22126207931484</v>
+        <v>185.503381547602</v>
       </c>
       <c r="F21" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="G21" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="H21" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="I21" t="n">
-        <v>62.22126207931484</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="J21" t="n">
         <v>9.763943861888347</v>
@@ -5871,10 +5871,10 @@
         <v>481.9986212547551</v>
       </c>
       <c r="X21" t="n">
-        <v>358.7165017864679</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="Y21" t="n">
-        <v>308.7855010158893</v>
+        <v>481.9986212547551</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589145</v>
+        <v>315.9417875589141</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558571</v>
+        <v>286.3198544558568</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618417</v>
+        <v>269.2568483618415</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017567</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130078</v>
+        <v>134.9956418130077</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151847</v>
+        <v>36.0586125915184</v>
       </c>
       <c r="H23" t="n">
         <v>9.763943861888347</v>
       </c>
       <c r="I23" t="n">
-        <v>76.33973727374106</v>
+        <v>89.24480594465253</v>
       </c>
       <c r="J23" t="n">
-        <v>76.33973727374106</v>
+        <v>89.24480594465253</v>
       </c>
       <c r="K23" t="n">
-        <v>76.33973727374106</v>
+        <v>89.24480594465253</v>
       </c>
       <c r="L23" t="n">
-        <v>124.7369877607284</v>
+        <v>137.6420564316399</v>
       </c>
       <c r="M23" t="n">
-        <v>207.4642137638454</v>
+        <v>220.3692824347569</v>
       </c>
       <c r="N23" t="n">
-        <v>284.6876167553503</v>
+        <v>297.5926854262619</v>
       </c>
       <c r="O23" t="n">
-        <v>320.6981276545306</v>
+        <v>333.6031963254422</v>
       </c>
       <c r="P23" t="n">
-        <v>320.6981276545306</v>
+        <v>454.4320016163105</v>
       </c>
       <c r="Q23" t="n">
-        <v>320.6981276545306</v>
+        <v>488.1971930944171</v>
       </c>
       <c r="R23" t="n">
-        <v>320.6981276545306</v>
+        <v>488.1971930944171</v>
       </c>
       <c r="S23" t="n">
-        <v>320.6981276545306</v>
+        <v>488.1971930944171</v>
       </c>
       <c r="T23" t="n">
-        <v>418.174393549482</v>
+        <v>488.1971930944171</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944177</v>
+        <v>488.1971930944171</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944177</v>
+        <v>488.1971930944171</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190491</v>
+        <v>471.0086272190485</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376813</v>
+        <v>431.7127376376808</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858653</v>
+        <v>369.6866933858649</v>
       </c>
     </row>
     <row r="24">
@@ -6048,22 +6048,22 @@
         <v>358.7165017864679</v>
       </c>
       <c r="D24" t="n">
-        <v>358.7165017864679</v>
+        <v>235.4343823181807</v>
       </c>
       <c r="E24" t="n">
-        <v>256.3281827984628</v>
+        <v>185.503381547602</v>
       </c>
       <c r="F24" t="n">
-        <v>133.0460633301756</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888347</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888347</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888347</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="J24" t="n">
         <v>9.763943861888347</v>
@@ -6072,10 +6072,10 @@
         <v>9.763943861888347</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3309857893937</v>
+        <v>41.00029403282524</v>
       </c>
       <c r="M24" t="n">
-        <v>249.159791080262</v>
+        <v>161.8290993236935</v>
       </c>
       <c r="N24" t="n">
         <v>282.6579046145618</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300262</v>
+        <v>1024.530470300263</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567884</v>
+        <v>885.8553792567898</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223571</v>
+        <v>759.7392152223583</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218561</v>
+        <v>599.5758265218572</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926912</v>
+        <v>407.3716927926921</v>
       </c>
       <c r="G26" t="n">
-        <v>199.381505630786</v>
+        <v>199.3815056307869</v>
       </c>
       <c r="H26" t="n">
         <v>64.03367896074072</v>
@@ -6227,19 +6227,19 @@
         <v>171.7509734792161</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696016</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
         <v>1662.115223691695</v>
@@ -6254,22 +6254,22 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.051665537844</v>
+        <v>1742.051665537846</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.998507597428</v>
+        <v>1632.99850759743</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259862</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.32853406763</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.0898921016262</v>
+        <v>386.2675570551163</v>
       </c>
       <c r="C27" t="n">
-        <v>302.6776178345899</v>
+        <v>196.85528278808</v>
       </c>
       <c r="D27" t="n">
-        <v>302.6776178345899</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="E27" t="n">
-        <v>129.1144139560044</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F27" t="n">
         <v>36.07516654911176</v>
@@ -6306,49 +6306,49 @@
         <v>36.07516654911176</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890321</v>
+        <v>74.95631296890322</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964086</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6401645971883</v>
+        <v>376.6401645971885</v>
       </c>
       <c r="N27" t="n">
-        <v>583.0234209365544</v>
+        <v>583.0234209365547</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0766978848379</v>
+        <v>716.0766978848382</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7871810738252</v>
+        <v>800.7871810738254</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.588609234163</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="R27" t="n">
-        <v>794.588609234163</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="S27" t="n">
-        <v>794.588609234163</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="T27" t="n">
-        <v>792.5374729135141</v>
+        <v>792.5374729135143</v>
       </c>
       <c r="U27" t="n">
-        <v>767.9813774258836</v>
+        <v>767.9813774258838</v>
       </c>
       <c r="V27" t="n">
-        <v>739.9694949336997</v>
+        <v>739.9694949336999</v>
       </c>
       <c r="W27" t="n">
-        <v>685.6387612681731</v>
+        <v>685.6387612681733</v>
       </c>
       <c r="X27" t="n">
-        <v>681.1986024890515</v>
+        <v>681.1986024890517</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.6257450285613</v>
+        <v>564.8034099820513</v>
       </c>
     </row>
     <row r="28">
@@ -6361,49 +6361,49 @@
         <v>36.07516654911176</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911176</v>
+        <v>59.39235819864395</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911176</v>
+        <v>126.4495201260992</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911176</v>
+        <v>196.9781260016553</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.228498281052</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.228498281052</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.228498281052</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.228498281052</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.228498281052</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.228498281052</v>
       </c>
       <c r="L28" t="n">
-        <v>65.45968473910585</v>
+        <v>270.228498281052</v>
       </c>
       <c r="M28" t="n">
-        <v>65.45968473910585</v>
+        <v>270.228498281052</v>
       </c>
       <c r="N28" t="n">
-        <v>260.6219149623256</v>
+        <v>270.228498281052</v>
       </c>
       <c r="O28" t="n">
-        <v>260.6219149623256</v>
+        <v>270.228498281052</v>
       </c>
       <c r="P28" t="n">
-        <v>260.6219149623256</v>
+        <v>270.228498281052</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.6219149623256</v>
+        <v>270.228498281052</v>
       </c>
       <c r="R28" t="n">
         <v>270.228498281052</v>
@@ -6440,37 +6440,37 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.855379256789</v>
+        <v>885.8553792567888</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223576</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218567</v>
+        <v>599.5758265218566</v>
       </c>
       <c r="F29" t="n">
         <v>407.3716927926918</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307865</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074072</v>
+        <v>64.03367896074066</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J29" t="n">
         <v>171.7509734792161</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908258</v>
+        <v>636.415575790826</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696016</v>
+        <v>929.9307874696019</v>
       </c>
       <c r="N29" t="n">
         <v>1217.942176136766</v>
@@ -6482,16 +6482,16 @@
         <v>1662.115223691695</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148034</v>
+        <v>1785.235767148035</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.758327455587</v>
+        <v>1803.758327455588</v>
       </c>
       <c r="S29" t="n">
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U29" t="n">
         <v>1742.051665537845</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.0898921016262</v>
+        <v>670.6257450285618</v>
       </c>
       <c r="C30" t="n">
-        <v>492.0898921016262</v>
+        <v>670.6257450285618</v>
       </c>
       <c r="D30" t="n">
-        <v>478.3143078960301</v>
+        <v>509.8456287895935</v>
       </c>
       <c r="E30" t="n">
-        <v>304.7511040174445</v>
+        <v>336.282424911008</v>
       </c>
       <c r="F30" t="n">
-        <v>144.3233877346886</v>
+        <v>175.8547086282521</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3233877346886</v>
+        <v>88.53248476653823</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3233877346886</v>
+        <v>88.53248476653823</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911175</v>
+        <v>88.53248476653823</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890322</v>
       </c>
       <c r="L30" t="n">
         <v>193.5233548964086</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6401645971883</v>
+        <v>376.6401645971885</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365544</v>
+        <v>583.0234209365547</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848379</v>
+        <v>716.0766978848382</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738252</v>
+        <v>800.7871810738254</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.588609234163</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="R30" t="n">
-        <v>794.588609234163</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="S30" t="n">
-        <v>794.588609234163</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="T30" t="n">
-        <v>792.5374729135141</v>
+        <v>792.5374729135143</v>
       </c>
       <c r="U30" t="n">
-        <v>767.9813774258836</v>
+        <v>767.9813774258838</v>
       </c>
       <c r="V30" t="n">
-        <v>739.9694949336997</v>
+        <v>739.9694949337</v>
       </c>
       <c r="W30" t="n">
-        <v>685.6387612681731</v>
+        <v>685.6387612681735</v>
       </c>
       <c r="X30" t="n">
-        <v>681.1986024890515</v>
+        <v>681.1986024890521</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.6257450285613</v>
+        <v>670.6257450285618</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911175</v>
+        <v>79.85415021279874</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911175</v>
+        <v>126.5183488672379</v>
       </c>
       <c r="I31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="K31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="L31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="M31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="N31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="O31" t="n">
-        <v>83.8020153722763</v>
+        <v>174.2451976904025</v>
       </c>
       <c r="P31" t="n">
-        <v>175.3797277253743</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.6219149623256</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="R31" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687928</v>
+        <v>236.6316904687926</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022784</v>
       </c>
       <c r="V31" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388997</v>
+        <v>49.43518041388986</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914015</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300261</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567878</v>
+        <v>885.8553792567888</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223564</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218554</v>
+        <v>599.5758265218565</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926905</v>
+        <v>407.3716927926916</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307868</v>
+        <v>199.3815056307865</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074073</v>
+        <v>64.0336789607407</v>
       </c>
       <c r="I32" t="n">
         <v>36.07516654911175</v>
@@ -6701,16 +6701,16 @@
         <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908256</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696015</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O32" t="n">
         <v>1464.740672711605</v>
@@ -6731,19 +6731,19 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.051665537844</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.998507597428</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
         <v>1506.756783781644</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>492.0898921016262</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C33" t="n">
-        <v>302.6776178345899</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D33" t="n">
-        <v>141.8975015956217</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E33" t="n">
         <v>36.07516654911175</v>
@@ -6780,49 +6780,49 @@
         <v>36.07516654911175</v>
       </c>
       <c r="K33" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890321</v>
       </c>
       <c r="L33" t="n">
         <v>193.5233548964086</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6401645971883</v>
+        <v>376.6401645971885</v>
       </c>
       <c r="N33" t="n">
-        <v>583.0234209365544</v>
+        <v>583.0234209365547</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0766978848379</v>
+        <v>716.0766978848382</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7871810738252</v>
+        <v>800.7871810738254</v>
       </c>
       <c r="Q33" t="n">
-        <v>794.588609234163</v>
+        <v>800.7871810738254</v>
       </c>
       <c r="R33" t="n">
-        <v>794.588609234163</v>
+        <v>800.7871810738254</v>
       </c>
       <c r="S33" t="n">
-        <v>794.588609234163</v>
+        <v>800.7871810738254</v>
       </c>
       <c r="T33" t="n">
-        <v>792.5374729135141</v>
+        <v>798.7360447531765</v>
       </c>
       <c r="U33" t="n">
-        <v>767.9813774258836</v>
+        <v>563.5664701547981</v>
       </c>
       <c r="V33" t="n">
-        <v>739.9694949336997</v>
+        <v>320.4867520584322</v>
       </c>
       <c r="W33" t="n">
-        <v>685.6387612681731</v>
+        <v>51.08818278872357</v>
       </c>
       <c r="X33" t="n">
-        <v>681.1986024890515</v>
+        <v>46.64802400960201</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.6257450285613</v>
+        <v>36.07516654911175</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07516654911175</v>
+        <v>71.02240076645219</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911175</v>
+        <v>73.06395314368589</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07516654911175</v>
+        <v>73.06395314368589</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07516654911175</v>
+        <v>143.592559019242</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07516654911175</v>
+        <v>216.8429312986387</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07516654911175</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07516654911175</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07516654911175</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07516654911175</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07516654911175</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="L34" t="n">
-        <v>36.07516654911175</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="M34" t="n">
-        <v>222.6454168959491</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="N34" t="n">
-        <v>222.6454168959491</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="O34" t="n">
-        <v>222.6454168959491</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="P34" t="n">
-        <v>260.6219149623258</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.6219149623258</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810522</v>
+        <v>270.228498281052</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270854</v>
+        <v>247.5648574270852</v>
       </c>
       <c r="T34" t="n">
-        <v>236.631690468793</v>
+        <v>236.6316904687928</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022787</v>
+        <v>160.1275115022786</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837841</v>
+        <v>127.610483283784</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041389002</v>
+        <v>49.43518041388997</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914022</v>
+        <v>40.34194994914019</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911175</v>
@@ -6932,31 +6932,31 @@
         <v>26.3112226872234</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967346</v>
+        <v>33.73340056967348</v>
       </c>
       <c r="J35" t="n">
-        <v>204.2335233968654</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="K35" t="n">
-        <v>204.2335233968654</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="L35" t="n">
-        <v>252.6307738838527</v>
+        <v>498.2430754565994</v>
       </c>
       <c r="M35" t="n">
-        <v>335.3579998869697</v>
+        <v>580.9703014597164</v>
       </c>
       <c r="N35" t="n">
-        <v>544.4175864529361</v>
+        <v>658.1937044512215</v>
       </c>
       <c r="O35" t="n">
-        <v>826.0403989248628</v>
+        <v>939.8165169231484</v>
       </c>
       <c r="P35" t="n">
         <v>1058.23926580204</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155468</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="R35" t="n">
         <v>1269.531001360108</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>142.340781901256</v>
+        <v>550.0668170718135</v>
       </c>
       <c r="C36" t="n">
-        <v>26.3112226872234</v>
+        <v>360.6545428047772</v>
       </c>
       <c r="D36" t="n">
-        <v>26.3112226872234</v>
+        <v>199.8744265658089</v>
       </c>
       <c r="E36" t="n">
         <v>26.3112226872234</v>
@@ -7017,49 +7017,49 @@
         <v>26.3112226872234</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701483</v>
+        <v>65.19236910701488</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7594110345202</v>
+        <v>183.7594110345204</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8762207353</v>
+        <v>366.8762207353002</v>
       </c>
       <c r="N36" t="n">
-        <v>573.2594770746662</v>
+        <v>573.2594770746664</v>
       </c>
       <c r="O36" t="n">
-        <v>706.3127540229497</v>
+        <v>706.3127540229499</v>
       </c>
       <c r="P36" t="n">
-        <v>791.0232372119369</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.8246653722747</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="R36" t="n">
-        <v>784.8246653722747</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="S36" t="n">
-        <v>784.8246653722747</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="T36" t="n">
-        <v>784.8246653722747</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="U36" t="n">
-        <v>784.8246653722747</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="V36" t="n">
-        <v>784.8246653722747</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="W36" t="n">
-        <v>766.0253222761671</v>
+        <v>772.2238941158296</v>
       </c>
       <c r="X36" t="n">
-        <v>546.5173278928635</v>
+        <v>772.2238941158296</v>
       </c>
       <c r="Y36" t="n">
-        <v>320.8766348281911</v>
+        <v>728.6026699987485</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.86570489252946</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="C37" t="n">
-        <v>82.86570489252946</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="E37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="F37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="G37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="H37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="I37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="J37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="K37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="L37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="M37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="N37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="O37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="P37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.86570489252946</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="R37" t="n">
         <v>106.9735468446525</v>
@@ -7135,10 +7135,10 @@
         <v>26.3112226872234</v>
       </c>
       <c r="X37" t="n">
-        <v>52.22326340580975</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.86570489252946</v>
+        <v>26.3112226872234</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>773.6196706102307</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361766</v>
+        <v>670.4759701361764</v>
       </c>
       <c r="D38" t="n">
         <v>579.8911966711642</v>
@@ -7169,37 +7169,37 @@
         <v>26.3112226872234</v>
       </c>
       <c r="I38" t="n">
-        <v>33.73340056967346</v>
+        <v>33.73340056967348</v>
       </c>
       <c r="J38" t="n">
-        <v>204.2335233968654</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="K38" t="n">
-        <v>444.5372054429164</v>
+        <v>444.5372054429166</v>
       </c>
       <c r="L38" t="n">
-        <v>738.5467575026503</v>
+        <v>738.5467575026505</v>
       </c>
       <c r="M38" t="n">
-        <v>945.0053519113549</v>
+        <v>821.2739835057675</v>
       </c>
       <c r="N38" t="n">
-        <v>1022.22875490286</v>
+        <v>898.4973864972726</v>
       </c>
       <c r="O38" t="n">
-        <v>1058.23926580204</v>
+        <v>934.5078973964529</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.23926580204</v>
+        <v>1166.70676427363</v>
       </c>
       <c r="Q38" t="n">
-        <v>1216.184125155468</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360108</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666533</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="T38" t="n">
         <v>1315.56113436117</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>368.0473481242219</v>
+        <v>515.4260961025662</v>
       </c>
       <c r="C39" t="n">
-        <v>178.6350738571856</v>
+        <v>515.4260961025662</v>
       </c>
       <c r="D39" t="n">
-        <v>26.3112226872234</v>
+        <v>515.4260961025662</v>
       </c>
       <c r="E39" t="n">
-        <v>26.3112226872234</v>
+        <v>341.8628922239807</v>
       </c>
       <c r="F39" t="n">
-        <v>26.3112226872234</v>
+        <v>181.4351759412248</v>
       </c>
       <c r="G39" t="n">
-        <v>26.3112226872234</v>
+        <v>181.4351759412248</v>
       </c>
       <c r="H39" t="n">
-        <v>26.3112226872234</v>
+        <v>181.4351759412248</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3112226872234</v>
+        <v>78.76854090464985</v>
       </c>
       <c r="J39" t="n">
         <v>26.3112226872234</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701483</v>
+        <v>65.19236910701488</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7594110345202</v>
+        <v>183.7594110345204</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8762207353</v>
+        <v>366.8762207353002</v>
       </c>
       <c r="N39" t="n">
-        <v>573.2594770746662</v>
+        <v>573.2594770746664</v>
       </c>
       <c r="O39" t="n">
-        <v>706.3127540229497</v>
+        <v>706.3127540229499</v>
       </c>
       <c r="P39" t="n">
-        <v>791.0232372119369</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="Q39" t="n">
-        <v>791.0232372119369</v>
+        <v>784.8246653722749</v>
       </c>
       <c r="R39" t="n">
-        <v>791.0232372119369</v>
+        <v>784.8246653722749</v>
       </c>
       <c r="S39" t="n">
-        <v>791.0232372119369</v>
+        <v>784.8246653722749</v>
       </c>
       <c r="T39" t="n">
-        <v>791.0232372119369</v>
+        <v>784.8246653722749</v>
       </c>
       <c r="U39" t="n">
-        <v>791.0232372119369</v>
+        <v>784.8246653722749</v>
       </c>
       <c r="V39" t="n">
-        <v>791.0232372119369</v>
+        <v>784.8246653722749</v>
       </c>
       <c r="W39" t="n">
-        <v>772.2238941158294</v>
+        <v>515.4260961025662</v>
       </c>
       <c r="X39" t="n">
-        <v>772.2238941158294</v>
+        <v>515.4260961025662</v>
       </c>
       <c r="Y39" t="n">
-        <v>546.5832010511569</v>
+        <v>515.4260961025662</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.3112226872234</v>
+        <v>82.86570489252946</v>
       </c>
       <c r="C40" t="n">
-        <v>26.3112226872234</v>
+        <v>82.86570489252946</v>
       </c>
       <c r="D40" t="n">
-        <v>26.3112226872234</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="E40" t="n">
-        <v>26.3112226872234</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="F40" t="n">
         <v>106.9735468446525</v>
@@ -7372,10 +7372,10 @@
         <v>26.3112226872234</v>
       </c>
       <c r="X40" t="n">
-        <v>26.3112226872234</v>
+        <v>52.22326340580975</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.3112226872234</v>
+        <v>82.86570489252946</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629606</v>
+        <v>820.9115219629601</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311161</v>
+        <v>710.1949433311156</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083134</v>
       </c>
       <c r="E41" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194415</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019059</v>
+        <v>315.5867941019055</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7412,22 +7412,22 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015557</v>
+        <v>424.1252542015558</v>
       </c>
       <c r="L41" t="n">
-        <v>521.7291450524847</v>
+        <v>521.729145052484</v>
       </c>
       <c r="M41" t="n">
-        <v>604.4563710556016</v>
+        <v>604.456371055601</v>
       </c>
       <c r="N41" t="n">
-        <v>681.6797740471065</v>
+        <v>681.6797740471061</v>
       </c>
       <c r="O41" t="n">
-        <v>955.8804086365832</v>
+        <v>955.8804086365828</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.657097631311</v>
+        <v>1180.65709763131</v>
       </c>
       <c r="Q41" t="n">
         <v>1331.179779102288</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613612</v>
+        <v>1317.545509613611</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186984</v>
+        <v>955.751073318698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.5691160689006</v>
+        <v>303.9178858843593</v>
       </c>
       <c r="C42" t="n">
-        <v>28.1658050932128</v>
+        <v>303.9178858843593</v>
       </c>
       <c r="D42" t="n">
-        <v>28.1658050932128</v>
+        <v>201.7290089717984</v>
       </c>
       <c r="E42" t="n">
         <v>28.1658050932128</v>
@@ -7491,49 +7491,49 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300425</v>
+        <v>67.04695151300429</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6139934405097</v>
+        <v>185.6139934405098</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412895</v>
+        <v>368.7308031412896</v>
       </c>
       <c r="N42" t="n">
-        <v>575.1140594806557</v>
+        <v>575.1140594806558</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1673364289392</v>
+        <v>708.1673364289393</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="Q42" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="R42" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="S42" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="T42" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="U42" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="V42" t="n">
-        <v>786.6258776977094</v>
+        <v>549.7981015215606</v>
       </c>
       <c r="W42" t="n">
-        <v>760.2536564438117</v>
+        <v>523.4258802676629</v>
       </c>
       <c r="X42" t="n">
-        <v>540.745662060508</v>
+        <v>303.9178858843593</v>
       </c>
       <c r="Y42" t="n">
-        <v>315.1049689958357</v>
+        <v>303.9178858843593</v>
       </c>
     </row>
     <row r="43">
@@ -7570,16 +7570,16 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="L43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="M43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="N43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="O43" t="n">
         <v>131.4867779132288</v>
@@ -7649,19 +7649,19 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015557</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="L44" t="n">
-        <v>710.7126283788394</v>
+        <v>239.6410005249421</v>
       </c>
       <c r="M44" t="n">
-        <v>1031.629978072253</v>
+        <v>366.2662473653049</v>
       </c>
       <c r="N44" t="n">
-        <v>1108.853381063758</v>
+        <v>681.6797740471063</v>
       </c>
       <c r="O44" t="n">
-        <v>1144.863891962938</v>
+        <v>955.8804086365831</v>
       </c>
       <c r="P44" t="n">
         <v>1180.657097631311</v>
@@ -7728,7 +7728,7 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300425</v>
+        <v>67.04695151300427</v>
       </c>
       <c r="L45" t="n">
         <v>185.6139934405097</v>
@@ -7758,19 +7758,19 @@
         <v>786.6792477782642</v>
       </c>
       <c r="U45" t="n">
-        <v>742.7664318914524</v>
+        <v>786.6792477782642</v>
       </c>
       <c r="V45" t="n">
-        <v>499.6867137950864</v>
+        <v>786.6258776977094</v>
       </c>
       <c r="W45" t="n">
-        <v>473.3144925411888</v>
+        <v>651.8503454681239</v>
       </c>
       <c r="X45" t="n">
-        <v>253.8064981578852</v>
+        <v>432.3423510848203</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.1658050932128</v>
+        <v>206.7016580201479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.87593153361875</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="C46" t="n">
-        <v>69.87593153361875</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="D46" t="n">
-        <v>69.87593153361875</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="E46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="F46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="G46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="H46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="I46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="J46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="K46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="M46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="N46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="O46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="P46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="R46" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="S46" t="n">
         <v>131.4867779132288</v>
@@ -7846,10 +7846,10 @@
         <v>28.1658050932128</v>
       </c>
       <c r="X46" t="n">
-        <v>46.65566792934909</v>
+        <v>45.91714207698115</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.87593153361875</v>
+        <v>69.13740568125081</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0995883116344</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,10 +8778,10 @@
         <v>238.8597051383722</v>
       </c>
       <c r="N12" t="n">
-        <v>221.5485458311084</v>
+        <v>224.1952211518975</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222145</v>
+        <v>240.2281564014253</v>
       </c>
       <c r="P12" t="n">
         <v>120.7977294433386</v>
@@ -9006,16 +9006,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0995883116344</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L15" t="n">
-        <v>152.0917238005117</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
         <v>238.8597051383722</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518976</v>
+        <v>135.9824011957677</v>
       </c>
       <c r="O15" t="n">
         <v>242.8748317222145</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.0995883116344</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>237.6578684358524</v>
       </c>
       <c r="M18" t="n">
         <v>238.8597051383722</v>
       </c>
       <c r="N18" t="n">
-        <v>135.9824011957677</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O18" t="n">
         <v>242.8748317222145</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0995883116344</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L21" t="n">
         <v>237.6578684358524</v>
@@ -9717,16 +9717,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0995883116344</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005117</v>
       </c>
       <c r="M24" t="n">
         <v>238.8597051383722</v>
       </c>
       <c r="N24" t="n">
-        <v>135.9824011957677</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O24" t="n">
         <v>242.8748317222145</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029787</v>
+        <v>179.7047647029786</v>
       </c>
       <c r="C11" t="n">
         <v>155.8230217063241</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34038569376827</v>
+        <v>143.3896839673725</v>
       </c>
       <c r="E11" t="n">
-        <v>115.8090233281892</v>
+        <v>177.0964363867814</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651588</v>
+        <v>86.76747569155438</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4449668635718</v>
+        <v>102.3956685899673</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766312</v>
+        <v>30.47973170302673</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.21360886079816</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163203</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293227</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.7672073838573</v>
+        <v>9.192618099030717</v>
       </c>
       <c r="V11" t="n">
-        <v>4.448009660693003</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="W11" t="n">
-        <v>21.46468987730788</v>
+        <v>143.5139881509121</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198515</v>
+        <v>165.4002386198514</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435952</v>
+        <v>187.9030917435951</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65546642937431</v>
+        <v>179.7047647029786</v>
       </c>
       <c r="C14" t="n">
         <v>155.8230217063241</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673726</v>
+        <v>21.34038569376824</v>
       </c>
       <c r="E14" t="n">
-        <v>55.04713811317714</v>
+        <v>177.0964363867814</v>
       </c>
       <c r="F14" t="n">
-        <v>147.5293609065664</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635718</v>
+        <v>224.4449668635717</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47973170302683</v>
+        <v>30.47973170302679</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163203</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293232</v>
+        <v>28.03643329293223</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385731</v>
+        <v>27.3697936668969</v>
       </c>
       <c r="V14" t="n">
         <v>126.4973079342973</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509122</v>
+        <v>21.46468987730785</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198515</v>
+        <v>165.4002386198514</v>
       </c>
       <c r="Y14" t="n">
         <v>187.9030917435952</v>
@@ -26314,16 +26314,16 @@
         <v>22048.29987941149</v>
       </c>
       <c r="C2" t="n">
-        <v>22048.29987941149</v>
+        <v>22048.29987941148</v>
       </c>
       <c r="D2" t="n">
         <v>22048.29987941149</v>
       </c>
       <c r="E2" t="n">
-        <v>18999.75222551196</v>
+        <v>18999.75222551197</v>
       </c>
       <c r="F2" t="n">
-        <v>18999.75222551196</v>
+        <v>18999.75222551197</v>
       </c>
       <c r="G2" t="n">
         <v>22092.96372146341</v>
@@ -26332,28 +26332,28 @@
         <v>22092.96372146341</v>
       </c>
       <c r="I2" t="n">
+        <v>22092.96372146341</v>
+      </c>
+      <c r="J2" t="n">
         <v>22092.9637214634</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>22092.96372146338</v>
+      </c>
+      <c r="L2" t="n">
         <v>22092.96372146339</v>
-      </c>
-      <c r="K2" t="n">
-        <v>22092.96372146339</v>
-      </c>
-      <c r="L2" t="n">
-        <v>22092.96372146338</v>
       </c>
       <c r="M2" t="n">
         <v>22092.96372146339</v>
       </c>
       <c r="N2" t="n">
+        <v>22092.96372146339</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22092.96372146339</v>
+      </c>
+      <c r="P2" t="n">
         <v>22092.9637214634</v>
-      </c>
-      <c r="O2" t="n">
-        <v>22092.9637214634</v>
-      </c>
-      <c r="P2" t="n">
-        <v>22092.96372146339</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845677</v>
+        <v>275373.0470845678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474379</v>
+        <v>101197.8463474378</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.8613309799</v>
+        <v>28140.86133097987</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240153</v>
+        <v>68716.99883240157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>461965.1541894153</v>
       </c>
       <c r="E4" t="n">
-        <v>355249.9666028519</v>
+        <v>355249.966602852</v>
       </c>
       <c r="F4" t="n">
         <v>355249.9666028519</v>
       </c>
       <c r="G4" t="n">
+        <v>425753.4766314352</v>
+      </c>
+      <c r="H4" t="n">
         <v>425753.4766314353</v>
-      </c>
-      <c r="H4" t="n">
-        <v>425753.4766314352</v>
       </c>
       <c r="I4" t="n">
         <v>425753.4766314353</v>
@@ -26445,7 +26445,7 @@
         <v>424916.7517290888</v>
       </c>
       <c r="L4" t="n">
-        <v>424916.7517290888</v>
+        <v>424916.7517290887</v>
       </c>
       <c r="M4" t="n">
         <v>424375.1958291386</v>
@@ -26457,7 +26457,7 @@
         <v>424475.2891828689</v>
       </c>
       <c r="P4" t="n">
-        <v>424475.2891828688</v>
+        <v>424475.2891828689</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334828</v>
+        <v>26025.86226334829</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.86226334828</v>
+        <v>26025.86226334829</v>
       </c>
       <c r="G5" t="n">
+        <v>36660.36444407672</v>
+      </c>
+      <c r="H5" t="n">
         <v>36660.36444407673</v>
       </c>
-      <c r="H5" t="n">
-        <v>36660.36444407672</v>
-      </c>
       <c r="I5" t="n">
-        <v>36660.36444407672</v>
+        <v>36660.36444407673</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082262</v>
       </c>
       <c r="K5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.58365082262</v>
       </c>
       <c r="L5" t="n">
         <v>47580.58365082261</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-473544.4543100038</v>
+        <v>-473548.920694209</v>
       </c>
       <c r="C6" t="n">
-        <v>-473544.4543100038</v>
+        <v>-473548.920694209</v>
       </c>
       <c r="D6" t="n">
-        <v>-473544.4543100038</v>
+        <v>-473548.920694209</v>
       </c>
       <c r="E6" t="n">
-        <v>-637649.123725256</v>
+        <v>-637958.4448748513</v>
       </c>
       <c r="F6" t="n">
-        <v>-362276.0766406882</v>
+        <v>-362585.3977902834</v>
       </c>
       <c r="G6" t="n">
-        <v>-541518.7237014866</v>
+        <v>-541518.7237014864</v>
       </c>
       <c r="H6" t="n">
-        <v>-440320.8773540485</v>
+        <v>-440320.8773540486</v>
       </c>
       <c r="I6" t="n">
-        <v>-440320.8773540487</v>
+        <v>-440320.8773540486</v>
       </c>
       <c r="J6" t="n">
-        <v>-605592.420469221</v>
+        <v>-605592.4204692208</v>
       </c>
       <c r="K6" t="n">
-        <v>-450404.371658448</v>
+        <v>-450404.3716584481</v>
       </c>
       <c r="L6" t="n">
-        <v>-551602.218005886</v>
+        <v>-551602.2180058857</v>
       </c>
       <c r="M6" t="n">
         <v>-473540.2973434853</v>
@@ -26558,10 +26558,10 @@
         <v>-445399.4360125054</v>
       </c>
       <c r="O6" t="n">
-        <v>-514995.7329762803</v>
+        <v>-514995.7329762804</v>
       </c>
       <c r="P6" t="n">
-        <v>-446278.7341438787</v>
+        <v>-446278.7341438788</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F2" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="G2" t="n">
+        <v>320.879783609152</v>
+      </c>
+      <c r="H2" t="n">
         <v>320.8797836091521</v>
       </c>
-      <c r="H2" t="n">
-        <v>320.879783609152</v>
-      </c>
       <c r="I2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="J2" t="n">
         <v>212.9171572481403</v>
@@ -26713,7 +26713,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
         <v>248.0932339118651</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.840577101091</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.840577101091</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.840577101091</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
     </row>
     <row r="4">
@@ -26814,7 +26814,7 @@
         <v>450.939581863897</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.939581863897</v>
       </c>
       <c r="L4" t="n">
         <v>450.9395818638968</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384292</v>
+        <v>86.41984931384295</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372487</v>
+        <v>35.17607666372484</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763071</v>
+        <v>78.92269993763077</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384292</v>
+        <v>86.41984931384295</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="K11" t="n">
-        <v>40.58262532198847</v>
+        <v>5.362241946156942</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>38.48644372500132</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.04586090844782</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491821</v>
+        <v>25.47210820804952</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55297193870594</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>97.34505023309403</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28187,7 +28187,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072131</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748547</v>
+        <v>134.7835133680319</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="D13" t="n">
-        <v>194.3824756748547</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748547</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748547</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>194.3824756748547</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3824756748547</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3824756748547</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K13" t="n">
-        <v>83.87930773302405</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M13" t="n">
-        <v>24.4623589180015</v>
+        <v>146.5116571916058</v>
       </c>
       <c r="N13" t="n">
-        <v>15.7835913661001</v>
+        <v>129.7066089827051</v>
       </c>
       <c r="O13" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="14">
@@ -28348,10 +28348,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748547</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K14" t="n">
-        <v>17.28542621928887</v>
+        <v>13.74771599876665</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.54892393491821</v>
+        <v>135.5982222085225</v>
       </c>
       <c r="Q14" t="n">
         <v>194.3824756748547</v>
@@ -28412,10 +28412,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>112.2286095329773</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>36.774140846324</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7388631915159</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3633376148752</v>
+        <v>31.91915920201292</v>
       </c>
       <c r="S15" t="n">
         <v>191.4841495043256</v>
@@ -28460,7 +28460,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748547</v>
+        <v>115.1783935072901</v>
       </c>
       <c r="V15" t="n">
         <v>194.3824756748547</v>
@@ -28485,10 +28485,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="E16" t="n">
         <v>194.3824756748547</v>
@@ -28497,7 +28497,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3824756748547</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H16" t="n">
         <v>165.7816030517371</v>
@@ -28509,22 +28509,22 @@
         <v>194.3824756748547</v>
       </c>
       <c r="K16" t="n">
-        <v>188.5200605953728</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383526</v>
+        <v>103.132142054808</v>
       </c>
       <c r="M16" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N16" t="n">
-        <v>16.86883125389523</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O16" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8139378168763</v>
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>284.9671526670159</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177223</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156978</v>
+        <v>5.362241946156942</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491821</v>
+        <v>80.79720010850622</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870594</v>
+        <v>88.55297193870591</v>
       </c>
       <c r="R17" t="n">
-        <v>194.2075003718244</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S17" t="n">
-        <v>320.8797836091521</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="18">
@@ -28646,16 +28646,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>109.7406243137057</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>49.77827356619534</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>36.774140846324</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7388631915159</v>
+        <v>26.68956491791157</v>
       </c>
       <c r="H18" t="n">
         <v>125.6800758778345</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.31403934127087</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
         <v>191.4841495043256</v>
@@ -28700,13 +28700,13 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>118.5996226417979</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>144.6552853034073</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>167.8812236765978</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28743,25 +28743,25 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J19" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M19" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N19" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O19" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8139378168763</v>
@@ -28773,7 +28773,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T19" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U19" t="n">
         <v>288.6562944249894</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5960845356529</v>
+        <v>312.6979267579406</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177223</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156978</v>
+        <v>5.362241946156942</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491816</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870594</v>
+        <v>88.55297193870591</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2075003718244</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S20" t="n">
-        <v>294.520751190075</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="T20" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="W20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="21">
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.7011961240614</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>65.46885325076158</v>
+        <v>138.0864607614931</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>37.12301680297421</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>49.77827356619534</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>36.774140846324</v>
       </c>
       <c r="G21" t="n">
         <v>148.7388631915159</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>95.26361616586627</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>173.9525953711528</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28980,25 +28980,25 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J22" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M22" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N22" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O22" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8139378168763</v>
@@ -29010,7 +29010,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U22" t="n">
         <v>288.6562944249894</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I23" t="n">
-        <v>307.8443607092415</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87088762177223</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156978</v>
+        <v>5.362241946156942</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491821</v>
+        <v>135.5982222085225</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870594</v>
+        <v>122.6592259569954</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2075003718244</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S23" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>320.879783609152</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="W23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="24">
@@ -29120,16 +29120,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>37.12301680297421</v>
       </c>
       <c r="E24" t="n">
-        <v>70.46313604167457</v>
+        <v>122.3958810769268</v>
       </c>
       <c r="F24" t="n">
         <v>36.774140846324</v>
       </c>
       <c r="G24" t="n">
-        <v>26.68956491791157</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H24" t="n">
         <v>125.6800758778345</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29217,25 +29217,25 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J25" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M25" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N25" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O25" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8139378168763</v>
@@ -29247,7 +29247,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T25" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U25" t="n">
         <v>288.6562944249894</v>
@@ -29311,10 +29311,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="O26" t="n">
+        <v>212.9171572481408</v>
+      </c>
+      <c r="P26" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="P26" t="n">
-        <v>212.9171572481413</v>
       </c>
       <c r="Q26" t="n">
         <v>212.9171572481403</v>
@@ -29357,13 +29357,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>66.71458418710468</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388631915159</v>
@@ -29375,7 +29375,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9171572481403</v>
+        <v>108.1530455520952</v>
       </c>
     </row>
     <row r="28">
@@ -29433,16 +29433,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>190.0098998098836</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959616282545</v>
@@ -29454,31 +29454,31 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L28" t="n">
-        <v>61.1175414788798</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M28" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N28" t="n">
-        <v>212.9171572481403</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O28" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R28" t="n">
-        <v>212.9171572481403</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S28" t="n">
         <v>212.9171572481403</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>145.5344867130384</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29603,16 +29603,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>62.28986156841923</v>
       </c>
       <c r="H30" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29682,40 +29682,40 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6959616282545</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I31" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M31" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P31" t="n">
-        <v>150.3991920277718</v>
+        <v>154.8492811566113</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.9171572481403</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R31" t="n">
-        <v>212.9171572481403</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S31" t="n">
         <v>212.9171572481403</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481408</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="33">
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>67.06346014375487</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265591</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29879,22 +29879,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9171572481402</v>
+        <v>4.409812928499861</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9171572481402</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9171572481402</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="34">
@@ -29904,22 +29904,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>168.5193550903902</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6959616282545</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H34" t="n">
         <v>165.7816030517371</v>
@@ -29928,52 +29928,52 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L34" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M34" t="n">
-        <v>212.9171572481402</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N34" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O34" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P34" t="n">
-        <v>96.25655133411396</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="35">
@@ -30010,22 +30010,22 @@
         <v>248.0932339118651</v>
       </c>
       <c r="K35" t="n">
-        <v>5.362241946156978</v>
+        <v>5.362241946156907</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>133.1678621964257</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>248.0932339118651</v>
       </c>
       <c r="P35" t="n">
-        <v>248.0932339118651</v>
+        <v>133.1678621964247</v>
       </c>
       <c r="Q35" t="n">
         <v>248.0932339118651</v>
@@ -30065,13 +30065,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>72.6488879024736</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525222</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
@@ -30128,10 +30128,10 @@
         <v>248.0932339118651</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>180.1992742581154</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>226.659745359225</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30165,37 +30165,37 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L37" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M37" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N37" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89645227716782</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R37" t="n">
-        <v>227.5648932414702</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S37" t="n">
         <v>235.3541616935673</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U37" t="n">
         <v>248.0932339118651</v>
@@ -30207,10 +30207,10 @@
         <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
-        <v>248.0932339118651</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.0932339118651</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30253,7 +30253,7 @@
         <v>248.0932339118651</v>
       </c>
       <c r="M38" t="n">
-        <v>124.9811802076642</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,19 +30262,19 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.54892393491821</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.0932339118651</v>
+        <v>238.9109215220792</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118651</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118651</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118651</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U38" t="n">
         <v>248.0932339118651</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>8.371702418316005</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388631915159</v>
@@ -30320,10 +30320,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1657389737211</v>
+        <v>5.525770287511918</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
@@ -30362,13 +30362,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30384,13 +30384,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>169.5340057579057</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>220.4039773269609</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.6959616282545</v>
@@ -30402,28 +30402,28 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L40" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M40" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N40" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O40" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716782</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R40" t="n">
         <v>203.2135377342752</v>
@@ -30432,7 +30432,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U40" t="n">
         <v>248.0932339118651</v>
@@ -30444,10 +30444,10 @@
         <v>248.0932339118651</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="41">
@@ -30487,7 +30487,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L41" t="n">
-        <v>49.7036771352946</v>
+        <v>49.7036771352937</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>80.19887365843502</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>58.00532693314321</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525222</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R42" t="n">
         <v>134.3633376148752</v>
@@ -30596,7 +30596,7 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>240.5960845356529</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30639,28 +30639,28 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47076232176846</v>
+        <v>170.8353813318856</v>
       </c>
       <c r="L43" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M43" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N43" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O43" t="n">
-        <v>141.1631650872938</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89645227716782</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R43" t="n">
         <v>203.2135377342752</v>
@@ -30669,7 +30669,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U43" t="n">
         <v>240.5960845356529</v>
@@ -30721,22 +30721,22 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
+        <v>5.362241946156935</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>44.34143518913716</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>49.70367713529433</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5960845356529</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30830,13 +30830,13 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>193.7540040529508</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5960845356529</v>
+        <v>133.276806669722</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>198.6673965313617</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30876,37 +30876,37 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J46" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L46" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383524</v>
       </c>
       <c r="M46" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800147</v>
       </c>
       <c r="N46" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610007</v>
       </c>
       <c r="O46" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717664</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89645227716782</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R46" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S46" t="n">
-        <v>240.5960845356529</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7409925368498</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -30918,7 +30918,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="X46" t="n">
-        <v>240.5960845356529</v>
+        <v>239.8500988261904</v>
       </c>
       <c r="Y46" t="n">
         <v>240.5960845356529</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N11" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R11" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H12" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J12" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K12" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N14" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R14" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H15" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J15" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K15" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N17" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R17" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H18" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J18" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K18" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N20" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H21" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J21" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K21" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N23" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R23" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J24" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K24" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N26" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R26" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H27" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J27" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K27" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N29" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H30" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J30" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K30" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252025</v>
+        <v>73.3004893825203</v>
       </c>
       <c r="N32" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138993</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050423</v>
       </c>
       <c r="R32" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482317</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995883</v>
       </c>
       <c r="J33" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K33" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046703</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337348</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361205</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047405</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055881</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901563</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411918</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R35" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H36" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J36" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K36" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627316</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R37" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S37" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R38" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H39" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J39" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K39" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627316</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R40" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S40" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R41" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H42" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J42" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K42" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627316</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R43" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S43" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852897</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282599</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483338</v>
+        <v>16.0937240148334</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928127</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260459</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771017</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252031</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403177</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971429</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138994</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050424</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372423</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572299</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201107</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759314</v>
       </c>
       <c r="H45" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062285</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995884</v>
       </c>
       <c r="J45" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K45" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708362</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046704</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009453</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337349</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361206</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214427</v>
+        <v>42.6510476021443</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085047</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614337</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047406</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904918</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055882</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494986</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034821</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875588</v>
+        <v>29.3528372287559</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627318</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46743102897968</v>
+        <v>26.4674310289797</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529365</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901565</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242478</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411919</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.5115880530824</v>
+        <v>118.5115880530825</v>
       </c>
       <c r="K11" t="n">
-        <v>35.2203833758315</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M11" t="n">
-        <v>122.0492982736043</v>
+        <v>83.56285454860306</v>
       </c>
       <c r="N11" t="n">
-        <v>122.0492982736043</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>11.92318427313136</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>105.8295037361489</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030303296</v>
+        <v>0.1749753030304326</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M12" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="N12" t="n">
+        <v>122.0492982736043</v>
+      </c>
+      <c r="O12" t="n">
         <v>119.4026229528152</v>
-      </c>
-      <c r="O12" t="n">
-        <v>122.0492982736043</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35541,43 +35541,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.76555500988658</v>
+        <v>16.76555500988667</v>
       </c>
       <c r="C13" t="n">
-        <v>27.92529470288233</v>
+        <v>27.92529470288241</v>
       </c>
       <c r="D13" t="n">
-        <v>49.19982542414397</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262968</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640802</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.6865140466002</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.60087262311754</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.67425663193114</v>
+        <v>29.67425663193122</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403391</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.40854541125559</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>113.9230176166051</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.5685378579785</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530824</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>11.92318427313189</v>
+        <v>8.385474052609704</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M14" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860306</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.8295037361487</v>
+        <v>105.8295037361488</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303296</v>
+        <v>0.1749753030303758</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>31.55186885953221</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M15" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736043</v>
+        <v>33.83647831747451</v>
       </c>
       <c r="O15" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,43 +35778,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.76555500988658</v>
+        <v>16.76555500988661</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>27.92529470288235</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.199825424144</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70633446262968</v>
+        <v>52.70633446262971</v>
       </c>
       <c r="F16" t="n">
-        <v>55.45559345640802</v>
+        <v>55.45559345640805</v>
       </c>
       <c r="G16" t="n">
-        <v>25.6865140466002</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.67425663193114</v>
+        <v>29.67425663193116</v>
       </c>
       <c r="J16" t="n">
-        <v>74.48316832403391</v>
+        <v>74.48316832403395</v>
       </c>
       <c r="K16" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>71.6959320809728</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.085239887795133</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.3710681313629</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M17" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860306</v>
       </c>
       <c r="N17" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>67.24827617358805</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266536</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.46087464136514</v>
+        <v>98.46087464136508</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>119.764688815662</v>
+        <v>117.1180134948729</v>
       </c>
       <c r="M18" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="N18" t="n">
-        <v>33.83647831747451</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O18" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534066</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>72.10184222228773</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M20" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860306</v>
       </c>
       <c r="N20" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.24827617358825</v>
+        <v>93.60730859266536</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136508</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.73010055044004</v>
+        <v>70.7301005504401</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.24827617358861</v>
+        <v>80.28369907349916</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M23" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860306</v>
       </c>
       <c r="N23" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>34.10625401828944</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136508</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.73010055044004</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.764688815662</v>
+        <v>31.55186885953221</v>
       </c>
       <c r="M24" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="N24" t="n">
-        <v>33.83647831747451</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O24" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,16 +36607,16 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816562</v>
       </c>
       <c r="P26" t="n">
-        <v>199.368233313223</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631591</v>
+        <v>18.70965687631593</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251662</v>
       </c>
       <c r="L27" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M27" t="n">
         <v>184.9664744452321</v>
       </c>
       <c r="N27" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O27" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,16 +36729,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>23.5527188379113</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.73450699742955</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.24101603591527</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.99027502969361</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>29.68133150504454</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>197.1335658820402</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.703619513865045</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L29" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511579</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967434</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132969</v>
       </c>
       <c r="O29" t="n">
         <v>249.2914106816557</v>
       </c>
       <c r="P29" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132222</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.7096568763159</v>
+        <v>18.70965687631599</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251662</v>
       </c>
       <c r="L30" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M30" t="n">
         <v>184.9664744452321</v>
       </c>
       <c r="N30" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O30" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.22119561988584</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.13555419640318</v>
       </c>
       <c r="I31" t="n">
-        <v>48.20893820521672</v>
+        <v>48.20893820521677</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>92.50273975060401</v>
+        <v>96.95282887944353</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.10321943126399</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.703619513865045</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.046269626368</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5549153019832</v>
+        <v>207.5549153019833</v>
       </c>
       <c r="L32" t="n">
         <v>261.8032688511578</v>
@@ -37081,16 +37081,16 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816562</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P32" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q32" t="n">
         <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631588</v>
+        <v>18.70965687631593</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251662</v>
       </c>
       <c r="L33" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M33" t="n">
         <v>184.9664744452321</v>
       </c>
       <c r="N33" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O33" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,22 +37200,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.30023658317216</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.062174118417878</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.24101603591527</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.99027502969361</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.22119561988578</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.4547983301387</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>38.36009905694614</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.703619513865016</v>
+        <v>9.70361951386505</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212178</v>
+        <v>7.497149376212199</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900928</v>
+        <v>172.2223462900929</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301754</v>
+        <v>296.9793455148828</v>
       </c>
       <c r="M35" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860311</v>
       </c>
       <c r="N35" t="n">
-        <v>211.1712995615822</v>
+        <v>78.00343736515661</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453805</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>119.6189382615066</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731591</v>
+        <v>159.5402619731592</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004075</v>
+        <v>53.88573354004079</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537839</v>
+        <v>20.8207588953784</v>
       </c>
       <c r="T35" t="n">
         <v>25.67432494407816</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L36" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M36" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N36" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O36" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>81.47709510851428</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.35135550719503</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37503,10 +37503,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>26.17377850362257</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.95196109769668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212178</v>
+        <v>7.497149376212199</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900928</v>
+        <v>172.2223462900929</v>
       </c>
       <c r="K38" t="n">
-        <v>242.7309919657081</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9793455148827</v>
+        <v>296.9793455148828</v>
       </c>
       <c r="M38" t="n">
-        <v>208.5440347562673</v>
+        <v>83.56285454860311</v>
       </c>
       <c r="N38" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515661</v>
       </c>
       <c r="O38" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351551</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5402619731591</v>
+        <v>150.3579495833733</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004075</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537839</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407816</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L39" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M39" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N39" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O39" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>24.35135550719503</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>81.47709510851428</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>26.17377850362257</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>30.95196109769668</v>
       </c>
     </row>
     <row r="41">
@@ -37780,31 +37780,31 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>235.2338425894959</v>
+        <v>235.233842589496</v>
       </c>
       <c r="L41" t="n">
-        <v>98.58978873831214</v>
+        <v>98.58978873831134</v>
       </c>
       <c r="M41" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860311</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515661</v>
       </c>
       <c r="O41" t="n">
-        <v>276.9703379691683</v>
+        <v>276.9703379691684</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0471606007347</v>
+        <v>227.0471606007348</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.043112596947</v>
+        <v>152.0431125969471</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382858</v>
+        <v>46.38858416382861</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32360951916621</v>
+        <v>13.32360951916622</v>
       </c>
       <c r="T41" t="n">
         <v>18.17717556786598</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L42" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M42" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N42" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O42" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38017,31 +38017,31 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2338425894959</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4821961386705</v>
+        <v>48.8861116030176</v>
       </c>
       <c r="M44" t="n">
-        <v>324.158939084256</v>
+        <v>127.9042897377402</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515651</v>
+        <v>318.5995219008095</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351541</v>
+        <v>276.9703379691684</v>
       </c>
       <c r="P44" t="n">
-        <v>36.15475320037613</v>
+        <v>227.0471606007348</v>
       </c>
       <c r="Q44" t="n">
         <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382858</v>
+        <v>46.3885841638286</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32360951916621</v>
+        <v>13.32360951916622</v>
       </c>
       <c r="T44" t="n">
         <v>18.17717556786598</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251663</v>
       </c>
       <c r="L45" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M45" t="n">
         <v>184.9664744452321</v>
       </c>
       <c r="N45" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963295</v>
       </c>
       <c r="O45" t="n">
         <v>134.3972494427106</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.97916387068483</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>56.99125531913668</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.241922842085585</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18.67662912741039</v>
+        <v>17.93064341794782</v>
       </c>
       <c r="Y46" t="n">
         <v>23.4548117214845</v>
